--- a/src/main/resources/template/excel/export/StockReport.xlsx
+++ b/src/main/resources/template/excel/export/StockReport.xlsx
@@ -34,7 +34,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="R3")</t>
+          <t>jx:area(lastCell="T3")</t>
         </r>
       </text>
     </comment>
@@ -47,7 +47,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:each(items="reportList" var="obj" lastCell="R3")</t>
+          <t>jx:each(items="reportList" var="obj" lastCell="T3")</t>
         </r>
       </text>
     </comment>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>商品库存查询</t>
   </si>
@@ -167,12 +167,72 @@
   </si>
   <si>
     <t>${obj.category}</t>
+  </si>
+  <si>
+    <r>
+      <t>${obj.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>untaxedC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ostPrice}</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>${obj.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>untaxedC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ostAmount}</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>不含税成本价</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>不含税库存金额</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
   </numFmts>
@@ -269,7 +329,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -286,10 +346,13 @@
     <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -310,7 +373,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -596,10 +659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -611,32 +674,36 @@
     <col min="5" max="5" width="16.625" customWidth="1"/>
     <col min="6" max="6" width="12.625" customWidth="1"/>
     <col min="7" max="8" width="8.625" customWidth="1"/>
-    <col min="9" max="18" width="12.625" customWidth="1"/>
+    <col min="9" max="13" width="12.625" customWidth="1"/>
+    <col min="14" max="14" width="14.875" customWidth="1"/>
+    <col min="15" max="20" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
     </row>
-    <row r="2" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -671,28 +738,34 @@
         <v>11</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -717,40 +790,46 @@
       <c r="H3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="N3" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="P3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="Q3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="R3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="T3" s="3" t="s">
         <v>36</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A1:T1"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
